--- a/data/trans_orig/P25D_R2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R2_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>19425</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10587</v>
+        <v>10343</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>36568</v>
+        <v>38281</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02821839041639078</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01537992111881954</v>
+        <v>0.01502539837981305</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05312226205090492</v>
+        <v>0.05561191961099351</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -762,19 +762,19 @@
         <v>5141</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2329</v>
+        <v>2410</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>10411</v>
+        <v>10735</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.007032197864370838</v>
+        <v>0.007032197864370839</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.003185200733177922</v>
+        <v>0.003296887978575225</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0142407619220236</v>
+        <v>0.01468357248504578</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>20</v>
@@ -783,19 +783,19 @@
         <v>24566</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14305</v>
+        <v>14520</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>43317</v>
+        <v>40670</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01730665858759615</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01007818075445501</v>
+        <v>0.01022938906391656</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03051721028311252</v>
+        <v>0.02865209074368714</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>668943</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>651800</v>
+        <v>650087</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>677781</v>
+        <v>678025</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9717816095836092</v>
+        <v>0.9717816095836094</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9468777379490946</v>
+        <v>0.9443880803890061</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9846200788811803</v>
+        <v>0.984974601620187</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1228</v>
@@ -833,19 +833,19 @@
         <v>725923</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>720653</v>
+        <v>720329</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>728735</v>
+        <v>728654</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9929678021356291</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9857592380779761</v>
+        <v>0.9853164275149544</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9968147992668221</v>
+        <v>0.9967031120214246</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1944</v>
@@ -854,19 +854,19 @@
         <v>1394866</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1376115</v>
+        <v>1378762</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1405127</v>
+        <v>1404912</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9826933414124041</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9694827897168876</v>
+        <v>0.9713479092563133</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.989921819245545</v>
+        <v>0.9897706109360838</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>41990</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>27117</v>
+        <v>27101</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>64387</v>
+        <v>65010</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04003193872849786</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02585226773606993</v>
+        <v>0.02583689675282711</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06138426419128277</v>
+        <v>0.06197844256969267</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>19</v>
@@ -979,19 +979,19 @@
         <v>17557</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>10569</v>
+        <v>10718</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>28576</v>
+        <v>29984</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01640593174462621</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009876290392081927</v>
+        <v>0.01001549134564912</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02670267135602355</v>
+        <v>0.02801878077582074</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>43</v>
@@ -1000,19 +1000,19 @@
         <v>59547</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42353</v>
+        <v>43141</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82837</v>
+        <v>85666</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.0281005696864828</v>
+        <v>0.02810056968648279</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01998665437585092</v>
+        <v>0.02035827998004927</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03909107419778605</v>
+        <v>0.04042630908632055</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>1006927</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>984530</v>
+        <v>983907</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1021800</v>
+        <v>1021816</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9599680612715022</v>
+        <v>0.9599680612715024</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9386157358087176</v>
+        <v>0.9380215574303075</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9741477322639301</v>
+        <v>0.9741631032471731</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1496</v>
@@ -1050,19 +1050,19 @@
         <v>1052593</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1041574</v>
+        <v>1040166</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1059581</v>
+        <v>1059432</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9835940682553737</v>
+        <v>0.9835940682553739</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9732973286439762</v>
+        <v>0.971981219224179</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9901237096079181</v>
+        <v>0.9899845086543504</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2436</v>
@@ -1071,19 +1071,19 @@
         <v>2059520</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2036230</v>
+        <v>2033401</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2076714</v>
+        <v>2075926</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9718994303135172</v>
+        <v>0.9718994303135171</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9609089258022139</v>
+        <v>0.9595736909136794</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.980013345624149</v>
+        <v>0.9796417200199503</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>23655</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12661</v>
+        <v>12995</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40210</v>
+        <v>39317</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02949928209715501</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01578890254811643</v>
+        <v>0.01620579570258162</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05014316740255011</v>
+        <v>0.04903044654314874</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1196,19 +1196,19 @@
         <v>22573</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14262</v>
+        <v>13350</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38055</v>
+        <v>37602</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.02779077600470424</v>
+        <v>0.02779077600470425</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01755813894364483</v>
+        <v>0.01643575767856314</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0468503002825431</v>
+        <v>0.04629367175222431</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -1217,19 +1217,19 @@
         <v>46229</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31182</v>
+        <v>31741</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>66850</v>
+        <v>66306</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02863954435638175</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01931765167142457</v>
+        <v>0.01966426029898249</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.041414745566881</v>
+        <v>0.04107811327617042</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>778240</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>761685</v>
+        <v>762578</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>789234</v>
+        <v>788900</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9705007179028451</v>
+        <v>0.970500717902845</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9498568325974499</v>
+        <v>0.9509695534568512</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9842110974518835</v>
+        <v>0.9837942042974182</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1029</v>
@@ -1267,19 +1267,19 @@
         <v>789686</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>774204</v>
+        <v>774657</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>797997</v>
+        <v>798909</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9722092239952957</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.953149699717457</v>
+        <v>0.9537063282477757</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9824418610563551</v>
+        <v>0.9835642423214371</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1689</v>
@@ -1288,19 +1288,19 @@
         <v>1567925</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1547304</v>
+        <v>1547848</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1582972</v>
+        <v>1582413</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9713604556436183</v>
+        <v>0.9713604556436184</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9585852544331185</v>
+        <v>0.9589218867238294</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.980682348328575</v>
+        <v>0.9803357397010176</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>34624</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>21244</v>
+        <v>22101</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54967</v>
+        <v>52642</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.03523043405092105</v>
+        <v>0.03523043405092106</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0216159090973691</v>
+        <v>0.0224886880378091</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0559299957606196</v>
+        <v>0.05356424473963663</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -1413,19 +1413,19 @@
         <v>26680</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>16446</v>
+        <v>17160</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>40163</v>
+        <v>40261</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02393687893005244</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01475503373462412</v>
+        <v>0.01539569871906034</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03603357818788044</v>
+        <v>0.03612180005519992</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>50</v>
@@ -1434,19 +1434,19 @@
         <v>61304</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>44236</v>
+        <v>44356</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>85165</v>
+        <v>83804</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02922877220058065</v>
+        <v>0.02922877220058064</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.02109120330772217</v>
+        <v>0.02114829153421903</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.04060566084230357</v>
+        <v>0.03995637892948237</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>948158</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>927815</v>
+        <v>930140</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>961538</v>
+        <v>960681</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9647695659490789</v>
+        <v>0.9647695659490793</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.944070004239379</v>
+        <v>0.9464357552603634</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9783840909026307</v>
+        <v>0.9775113119621909</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1529</v>
@@ -1484,19 +1484,19 @@
         <v>1087917</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1074434</v>
+        <v>1074336</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1098151</v>
+        <v>1097437</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9760631210699476</v>
+        <v>0.9760631210699479</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9639664218121197</v>
+        <v>0.9638781999447996</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9852449662653758</v>
+        <v>0.9846043012809395</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2505</v>
@@ -1505,19 +1505,19 @@
         <v>2036075</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2012214</v>
+        <v>2013575</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>2053143</v>
+        <v>2053023</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9707712277994194</v>
+        <v>0.9707712277994192</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9593943391576963</v>
+        <v>0.9600436210705177</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9789087966922777</v>
+        <v>0.9788517084657811</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>119694</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>92460</v>
+        <v>95401</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>155686</v>
+        <v>152018</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.03398502895526763</v>
+        <v>0.03398502895526764</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02625229712738709</v>
+        <v>0.02708753542960424</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04420427292151743</v>
+        <v>0.04316300226435273</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>72</v>
@@ -1630,19 +1630,19 @@
         <v>71951</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>55906</v>
+        <v>54082</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>93034</v>
+        <v>91633</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.01929981707580759</v>
+        <v>0.0192998170758076</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01499605300007515</v>
+        <v>0.01450673406588835</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02495500029838613</v>
+        <v>0.02457912788608132</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>146</v>
@@ -1651,19 +1651,19 @@
         <v>191645</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>158375</v>
+        <v>158361</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>226847</v>
+        <v>227493</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02643368445029211</v>
+        <v>0.02643368445029212</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02184478630354801</v>
+        <v>0.02184277289348843</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03128917001956389</v>
+        <v>0.0313781853938863</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>3402269</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3366277</v>
+        <v>3369945</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3429503</v>
+        <v>3426562</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9660149710447322</v>
+        <v>0.9660149710447323</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9557957270784826</v>
+        <v>0.9568369977356472</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9737477028726129</v>
+        <v>0.9729124645703959</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5282</v>
@@ -1701,19 +1701,19 @@
         <v>3656119</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3635036</v>
+        <v>3636437</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3672164</v>
+        <v>3673988</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9807001829241923</v>
+        <v>0.9807001829241924</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9750449997016135</v>
+        <v>0.9754208721139187</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9850039469999249</v>
+        <v>0.9854932659341112</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8574</v>
@@ -1722,19 +1722,19 @@
         <v>7058387</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7023185</v>
+        <v>7022539</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7091657</v>
+        <v>7091671</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.9735663155497079</v>
+        <v>0.9735663155497082</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9687108299804368</v>
+        <v>0.9686218146061139</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9781552136964522</v>
+        <v>0.9781572271065117</v>
       </c>
     </row>
     <row r="18">
